--- a/app/plugins/lesCollections/assets/export_mapping/mapping_export.xlsx
+++ b/app/plugins/lesCollections/assets/export_mapping/mapping_export.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="24520" windowHeight="11060"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162912"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>Rule type</t>
   </si>
@@ -133,9 +138,6 @@
     <t>code</t>
   </si>
   <si>
-    <t>Export_Caroline_1</t>
-  </si>
-  <si>
     <t>Alphanumeric code of the mapping</t>
   </si>
   <si>
@@ -179,18 +181,31 @@
   </si>
   <si>
     <t xml:space="preserve">CSV_print_field_names </t>
+  </si>
+  <si>
+    <t>mapping_lescollections_export</t>
+  </si>
+  <si>
+    <t>Export vers tableur (CSV, séparateur ";")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -214,8 +229,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +504,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -498,34 +514,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -827,16 +845,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -848,13 +866,13 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -862,16 +880,16 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>43</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -879,16 +897,16 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
         <v>45</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>47</v>
-      </c>
-      <c r="E35" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -896,13 +914,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>50</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -910,10 +928,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
         <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -921,7 +939,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -929,5 +947,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>